--- a/data/hotels_by_city/Houston/Houston_shard_314.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_314.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d106133-Reviews-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Holiday-Inn-Express-Hotel-Suites-Clute-Lake-Jackson.h2665064.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531273930176&amp;cancellable=false&amp;regionId=6059004&amp;vip=false&amp;c=ffe82c39-1c4f-426a-b8fa-a560a2a58651&amp;mctc=9&amp;exp_dp=134&amp;exp_ts=1531273937268&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,718 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r585543166-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>106133</t>
+  </si>
+  <si>
+    <t>585543166</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>On the way to the beach</t>
+  </si>
+  <si>
+    <t>We needed a hotel near the gulf coast but not on the beach. This was a nice hotel with a good breakfast: more items for breakfast than most hotels. The location is within a short driveof the gulf of Mexico at Surfside and Freeport.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2018</t>
+  </si>
+  <si>
+    <t>We needed a hotel near the gulf coast but not on the beach. This was a nice hotel with a good breakfast: more items for breakfast than most hotels. The location is within a short driveof the gulf of Mexico at Surfside and Freeport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r548603568-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>548603568</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Good choice of the many hotels in area</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on business. Room was clean and breakfast items were fresh, probably one of the better choices along the Highway 332 strip of hotels in the same area. Highway feeder road out front is like a drag strip at rush hour, that was probably the only downside.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r537619318-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>537619318</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>stayed at hotel 9 days for business</t>
+  </si>
+  <si>
+    <t>Overall the hotel was clean and comfortable but while I was there I sent out my laundry to be washed and folded, I asked at the front desk how much this service was and was told $10.00 dollars per pound which is reasonable but I was not told they weigh the cloths wet. I am very disappointed that I was not told this by the hotel I would have taken the cloths else where to be washed and folded.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Overall the hotel was clean and comfortable but while I was there I sent out my laundry to be washed and folded, I asked at the front desk how much this service was and was told $10.00 dollars per pound which is reasonable but I was not told they weigh the cloths wet. I am very disappointed that I was not told this by the hotel I would have taken the cloths else where to be washed and folded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r508111811-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>508111811</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Weekend Excursion</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious.  The staff were very courteous and helpful and offered fabulous suggestions for local restaurants.  The facilities were clean and maintained.  The only concern I witnessed was where the pool gate was rusted out was where the kids wanted to play.  Otherwise, great central location with a fabulous breakfast and courteous staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious.  The staff were very courteous and helpful and offered fabulous suggestions for local restaurants.  The facilities were clean and maintained.  The only concern I witnessed was where the pool gate was rusted out was where the kids wanted to play.  Otherwise, great central location with a fabulous breakfast and courteous staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r485445442-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>485445442</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed a quick get-away</t>
+  </si>
+  <si>
+    <t>I enjoyed the room and the pool area. I was not too happy with the renovations going on and think that I should not have paid the same for a room I had to walk through dust and mayhem to get to. However, I am just being picky. The hotel is nice and I plan to return next month. I am planning for this hotel to be my get-away spot in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Patricia B, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed the room and the pool area. I was not too happy with the renovations going on and think that I should not have paid the same for a room I had to walk through dust and mayhem to get to. However, I am just being picky. The hotel is nice and I plan to return next month. I am planning for this hotel to be my get-away spot in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r468976256-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>468976256</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>wedding weekend</t>
+  </si>
+  <si>
+    <t>frustration when checking in.. the room I had reserved many months ahead was under renovation.  Carmen at the front desk worked very hard to find another room to accommodate my needs ...even when her shift ended she made sure the incoming shift knew what was happening.  The hotel accommodated us and were very helpful and apologetic for the inconvenience! As we continued in and out they were very friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>frustration when checking in.. the room I had reserved many months ahead was under renovation.  Carmen at the front desk worked very hard to find another room to accommodate my needs ...even when her shift ended she made sure the incoming shift knew what was happening.  The hotel accommodated us and were very helpful and apologetic for the inconvenience! As we continued in and out they were very friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r415348059-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>415348059</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Excellant place to stay.</t>
+  </si>
+  <si>
+    <t>Great place for business travel. I was here for over a month working odd shifts. Never disturbed while sleeping days and room was cleaned promptly when working days. Located just north of Freeport on 288. Pool was well maintained and the staff was great. Breakfast was often out early (0500) for those of us working the odd shifts.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Great place for business travel. I was here for over a month working odd shifts. Never disturbed while sleeping days and room was cleaned promptly when working days. Located just north of Freeport on 288. Pool was well maintained and the staff was great. Breakfast was often out early (0500) for those of us working the odd shifts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r399249433-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>399249433</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Nice and Easy Going</t>
+  </si>
+  <si>
+    <t>Clean spacious rooms. We were comfortable and able to relax. Plenty of space for our family of four. Breakfast was typical but good. The hotel lobby and common areas were clean and beautifully decorated. Nice pool area. Helpful staff. This hotel is safe and secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Clean spacious rooms. We were comfortable and able to relax. Plenty of space for our family of four. Breakfast was typical but good. The hotel lobby and common areas were clean and beautifully decorated. Nice pool area. Helpful staff. This hotel is safe and secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r319389195-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>319389195</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>New, safe, and comfortable!</t>
+  </si>
+  <si>
+    <t>This hotel was well-received. I had difficulty finding the hotel on my GPS and decided to call front desk. Justin was excellent in his hospitality and felt very confident in his knowledge and ability to satisfy his guests. Rooms were clean and safe. As a safety professional, I felt the security and risk protection was adequate. I was impressed with the ambiance and modern look to the room. The breakfast was plentiful and delicious as I felt very satisfied. The systems in this hotel work very well. One system to improve on is ensuring the carpets are perfectly vacuumed and are inspected frequently.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r274838949-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>274838949</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Ho Hum</t>
+  </si>
+  <si>
+    <t>While I can't name any particular problem with my stay here it simply lacked the sense of being well run. The desk receptionist was nice but lacked warmth and missed a few of the usual greeting points. My guess is that she was new. The reception area needs an interior designer to help give it a better sense of flow. The building appears new and seemed to be clean enough but in spite of bright decorator colors the ambience of the place was dull. The best thing going was a well served breakfast even though it was the standard fare. All the hotels along this stretch of the highway are right across from a chemical refinery. If that makes you uneasy then you will need to stay in the nearby town of Lake Jackson. I never had a good Wi-Fi connection but that might have been my fault rather than theirs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>While I can't name any particular problem with my stay here it simply lacked the sense of being well run. The desk receptionist was nice but lacked warmth and missed a few of the usual greeting points. My guess is that she was new. The reception area needs an interior designer to help give it a better sense of flow. The building appears new and seemed to be clean enough but in spite of bright decorator colors the ambience of the place was dull. The best thing going was a well served breakfast even though it was the standard fare. All the hotels along this stretch of the highway are right across from a chemical refinery. If that makes you uneasy then you will need to stay in the nearby town of Lake Jackson. I never had a good Wi-Fi connection but that might have been my fault rather than theirs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r267941689-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>267941689</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Good quality</t>
+  </si>
+  <si>
+    <t>We stayed at Holiday Inn Express Clute while visiting family in the area.We were impeessed with clean bright interior as soon as we walked into the lobby.  The impression continued as we entered the room.  The room was remarkably clean.  Bed was very comfortable and the room remained very quiet all night. Breakfast was okay, better than many complementary breakfasts, but there was nothing very special about it either.  The turkey sausage was nasty. I continue to believe that hotel prices in the area are quite high.  This property is no exception. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed at Holiday Inn Express Clute while visiting family in the area.We were impeessed with clean bright interior as soon as we walked into the lobby.  The impression continued as we entered the room.  The room was remarkably clean.  Bed was very comfortable and the room remained very quiet all night. Breakfast was okay, better than many complementary breakfasts, but there was nothing very special about it either.  The turkey sausage was nasty. I continue to believe that hotel prices in the area are quite high.  This property is no exception. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r256265367-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>256265367</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel. The rooms are spacious and clean with modern elements. Beds are very comfortable and the price quality ratio is good. The hotel is basically good! The breakfast is full of artificial flavors. Pre cooked products that are edible but that is about the extend of it. It's complimentary and it shows. So make other breakfast arrangements if you like to enjoy you breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel. The rooms are spacious and clean with modern elements. Beds are very comfortable and the price quality ratio is good. The hotel is basically good! The breakfast is full of artificial flavors. Pre cooked products that are edible but that is about the extend of it. It's complimentary and it shows. So make other breakfast arrangements if you like to enjoy you breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r226770933-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>226770933</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Standard hotel with good facilities when they're working.</t>
+  </si>
+  <si>
+    <t>So, as this hotel is part of a chain I guess things are going to be of a 'standard' standard and it was. Ample car parking, easy to find. Great location if you're working on The Freeport chemical sites. There is a decent/small gym and a surprisingly good sized pool out the back and a jacuzzi which was a treat. Breakfast is probably better served elsewhere. Although I am doing a major disservice to the lady who appears the be doing everything herself. The reason I advise against avoiding it is because a lot of the grub is 'microwaved' on the positive there is a great choice and you can opt for fruit or pancakes, cereals, or the processed crap if that's what you like. Got bit annoyed at times when I was left waiting at reception for five-plus minutes (this happened two or three times) but I guess the staff are multi-skilled and are busy doing other things, however this didn't help me. Coupled with the internet being down for 18 hours and the washing machines/dryers not working in the laundry room for two out of the four days I was here I would probably say I've been generous with a 3/5! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>So, as this hotel is part of a chain I guess things are going to be of a 'standard' standard and it was. Ample car parking, easy to find. Great location if you're working on The Freeport chemical sites. There is a decent/small gym and a surprisingly good sized pool out the back and a jacuzzi which was a treat. Breakfast is probably better served elsewhere. Although I am doing a major disservice to the lady who appears the be doing everything herself. The reason I advise against avoiding it is because a lot of the grub is 'microwaved' on the positive there is a great choice and you can opt for fruit or pancakes, cereals, or the processed crap if that's what you like. Got bit annoyed at times when I was left waiting at reception for five-plus minutes (this happened two or three times) but I guess the staff are multi-skilled and are busy doing other things, however this didn't help me. Coupled with the internet being down for 18 hours and the washing machines/dryers not working in the laundry room for two out of the four days I was here I would probably say I've been generous with a 3/5! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r212960620-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>212960620</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights here for a business trip. The hotel is very good with nice big rooms. The front desk staff are very nice and helpful. The free breakfasts are ok. Hotel has a nice outdoor pool and hottub. The cookies at night are a good little snack.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights here for a business trip. The hotel is very good with nice big rooms. The front desk staff are very nice and helpful. The free breakfasts are ok. Hotel has a nice outdoor pool and hottub. The cookies at night are a good little snack.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r206952719-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>206952719</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Perfect stay!</t>
+  </si>
+  <si>
+    <t>Very nice stay! My husband and myself recently stayed at this property Thursday and Friday last week. Front desk staff very friendly and efficient. Room itself was spotless. Breakfast was perfect with multiple choices and constantly refilled. We were very impressed with Bertilia who worked in the breakfast bar area. She was either refilling everything, cleaning, etc. always had a smile. Awesome worker! Will definately stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Very nice stay! My husband and myself recently stayed at this property Thursday and Friday last week. Front desk staff very friendly and efficient. Room itself was spotless. Breakfast was perfect with multiple choices and constantly refilled. We were very impressed with Bertilia who worked in the breakfast bar area. She was either refilling everything, cleaning, etc. always had a smile. Awesome worker! Will definately stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r177458067-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>177458067</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times.</t>
+  </si>
+  <si>
+    <t>I have stayed at all the "nicer" hotels in this area and was suprised this was number 3 on tripadvisor when it should be number 1 in rhis area. It is the nicest hotel in the area hands down overall. The hot breakfest is the best and I enjoyed the pancakes :) The lady who worked the breakfest area (forgot name) is very kind and hard working. I was the only one there because I woke up early and she made sure to ask if I needed anything ( i didnt but it was a kind gesture knowing that she cared to make sure I had everything I needed). The breakfest area was spotless and very well maintained. The hot tub and pool was relaxing as well. #1 Hotel in brazoria county. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at all the "nicer" hotels in this area and was suprised this was number 3 on tripadvisor when it should be number 1 in rhis area. It is the nicest hotel in the area hands down overall. The hot breakfest is the best and I enjoyed the pancakes :) The lady who worked the breakfest area (forgot name) is very kind and hard working. I was the only one there because I woke up early and she made sure to ask if I needed anything ( i didnt but it was a kind gesture knowing that she cared to make sure I had everything I needed). The breakfest area was spotless and very well maintained. The hot tub and pool was relaxing as well. #1 Hotel in brazoria county. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r174403456-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>174403456</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Modern Looking Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>First impression, there is not much in Clute, TX.  However, there is an awesome Holiday Inn Express and Suites!  I stayed the night before going fishing out on the gulf and had a great night sleep.  The design is very modern and neat.  If I am ever in Clute again, I'm staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>First impression, there is not much in Clute, TX.  However, there is an awesome Holiday Inn Express and Suites!  I stayed the night before going fishing out on the gulf and had a great night sleep.  The design is very modern and neat.  If I am ever in Clute again, I'm staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r172050813-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>172050813</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>The room decor was very up-to-date</t>
+  </si>
+  <si>
+    <t>The service was excellent.  There wasn't any wait time at check in and the front desk person was very friendly.  We were two couples and the room my sister and brother-in-law received was better than ours and they thought it was perfect for them.  It was complete with a refrigerator and a sink, a desk, another table and a foldout sofa.  The decor of the room is very up-to-date and the colors are very relaxing.  We were next to the housekeeping room and our room was half tile and half carpet without the additional sitting area.  It felt like a very wide corridor and I didn't like it.  There is a lot of lighting in the bathroom but the bedroom could use an additional light alongside the chair and the desk could use a different type of light.  There was a free breakfast but no one cared for the quality of the food - too prepackaged.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>The service was excellent.  There wasn't any wait time at check in and the front desk person was very friendly.  We were two couples and the room my sister and brother-in-law received was better than ours and they thought it was perfect for them.  It was complete with a refrigerator and a sink, a desk, another table and a foldout sofa.  The decor of the room is very up-to-date and the colors are very relaxing.  We were next to the housekeeping room and our room was half tile and half carpet without the additional sitting area.  It felt like a very wide corridor and I didn't like it.  There is a lot of lighting in the bathroom but the bedroom could use an additional light alongside the chair and the desk could use a different type of light.  There was a free breakfast but no one cared for the quality of the food - too prepackaged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r155291548-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>155291548</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Very nice property with friendly staff.</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean, bright hotel with very friendly staff. Our room was spacious, light, and clean. Breakfast did not have too many choices, but there was enough standard fare to get by (breads, cereals, sweets, fruit). Bring your own mug if you don't like Styrofoam coffee cups! The hot tub was not operational which was a big disappointment and we couldn't use the hot tub at the sister property because theirs was not in working order either. We reserved a queen suite for a family of 6 and we were lacking a couple sets of towels (of course we were given more on request). The staff did everything to make us feel welcome and comfortable. We would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean, bright hotel with very friendly staff. Our room was spacious, light, and clean. Breakfast did not have too many choices, but there was enough standard fare to get by (breads, cereals, sweets, fruit). Bring your own mug if you don't like Styrofoam coffee cups! The hot tub was not operational which was a big disappointment and we couldn't use the hot tub at the sister property because theirs was not in working order either. We reserved a queen suite for a family of 6 and we were lacking a couple sets of towels (of course we were given more on request). The staff did everything to make us feel welcome and comfortable. We would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r153099532-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>153099532</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This was a nice clean hotel.  Internet service was very poor didn't work 2 nights and was slow the rest of the week.  Other than that it was very nice.  Staff was friendly.  Easy access lots of good food close bye.  Room was nice and tv was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>This was a nice clean hotel.  Internet service was very poor didn't work 2 nights and was slow the rest of the week.  Other than that it was very nice.  Staff was friendly.  Easy access lots of good food close bye.  Room was nice and tv was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r147861948-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>147861948</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Awesome Deal!</t>
+  </si>
+  <si>
+    <t>So my family of 5 stayed here recently for a weekend getaway. The room was spacious, had all the amenities, frig, microwave, a sleeper sofa. Because there were only  a few families there that weekend, it was like we had the whole place to ourselves! We enjoyed the outdoor pool and hot tub all to ourselves. Breakfast was plentiful, especially since there were only a couple of other families eating. Since the hotel was near vacant, it was so quiet and peaceful at night, unlike other hotels I have stayed at with loud banging doors. The staff was friendly and the location was perfect, about 5 minutes from the beach. I read some review where they did not like the retro decor. We thought it was cool. Kind of 70's looking, but it looked neat and everything there looked brand new. I rarely write hotel reviews, unless they are terrible. But until this hotel, I had yet to find a really good one. Well, this one was a good one! I would definitely recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2013</t>
+  </si>
+  <si>
+    <t>So my family of 5 stayed here recently for a weekend getaway. The room was spacious, had all the amenities, frig, microwave, a sleeper sofa. Because there were only  a few families there that weekend, it was like we had the whole place to ourselves! We enjoyed the outdoor pool and hot tub all to ourselves. Breakfast was plentiful, especially since there were only a couple of other families eating. Since the hotel was near vacant, it was so quiet and peaceful at night, unlike other hotels I have stayed at with loud banging doors. The staff was friendly and the location was perfect, about 5 minutes from the beach. I read some review where they did not like the retro decor. We thought it was cool. Kind of 70's looking, but it looked neat and everything there looked brand new. I rarely write hotel reviews, unless they are terrible. But until this hotel, I had yet to find a really good one. Well, this one was a good one! I would definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r130862958-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>130862958</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Terrible experience!!!</t>
+  </si>
+  <si>
+    <t>Don't go to this "hotel" if you want to have a good time with your family!!
+I spent Memorial weekend with my family and I am very dissapionted with this location.
+Sunday and Monday morning NO BREAKFAST AT ALL!!!! Literally nothing on shelfs, no milk, no yogourts, no bread, no sausages, no scrambled eggs, just juice and coffee, when I asked the kitchen attendant if she can replenish the missing items her reply was "I am sorry Sr. we are out of food"!!!!! went to front desk and asked for a Manager on duty, the answer was "there's only me here, can I help you?" when I told the Lady about the situation she told me that "she knew" what was going on and there was nothing she could do! "Our owner left us without anything, If you want i can send somebody out to get you something!! Both days the same situation, I am very sorry about this employees , they have to be there to face all the issues and the "Owner" knowing that they will be sold out 2 MONTHS IN ADVANCE" (I know this because I called the hotel, talked to the GM/Owner and he told me in MARCH that I can only get 2 rooms because they will be sold out Memorial day weekend. I just don't understand why he didn't prevent all this situation, it was a very easy thing to prevent, JUST BUY...Don't go to this "hotel" if you want to have a good time with your family!!I spent Memorial weekend with my family and I am very dissapionted with this location.Sunday and Monday morning NO BREAKFAST AT ALL!!!! Literally nothing on shelfs, no milk, no yogourts, no bread, no sausages, no scrambled eggs, just juice and coffee, when I asked the kitchen attendant if she can replenish the missing items her reply was "I am sorry Sr. we are out of food"!!!!! went to front desk and asked for a Manager on duty, the answer was "there's only me here, can I help you?" when I told the Lady about the situation she told me that "she knew" what was going on and there was nothing she could do! "Our owner left us without anything, If you want i can send somebody out to get you something!! Both days the same situation, I am very sorry about this employees , they have to be there to face all the issues and the "Owner" knowing that they will be sold out 2 MONTHS IN ADVANCE" (I know this because I called the hotel, talked to the GM/Owner and he told me in MARCH that I can only get 2 rooms because they will be sold out Memorial day weekend. I just don't understand why he didn't prevent all this situation, it was a very easy thing to prevent, JUST BUY THE FOOD ENOUGH FOR ALL YOUR PAYING GUESTS SR!!!!! Also you can use one more kitchen attendant to help when you know you will be sold out, one person is not enough to clean, replenish food and take care of all the requests that she/he might getIf you decide to go to this hotel be ready to take your kids to McDonals on 322 and Dixie... THATS WHAT I DID!!!!!!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded July 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2012</t>
+  </si>
+  <si>
+    <t>Don't go to this "hotel" if you want to have a good time with your family!!
+I spent Memorial weekend with my family and I am very dissapionted with this location.
+Sunday and Monday morning NO BREAKFAST AT ALL!!!! Literally nothing on shelfs, no milk, no yogourts, no bread, no sausages, no scrambled eggs, just juice and coffee, when I asked the kitchen attendant if she can replenish the missing items her reply was "I am sorry Sr. we are out of food"!!!!! went to front desk and asked for a Manager on duty, the answer was "there's only me here, can I help you?" when I told the Lady about the situation she told me that "she knew" what was going on and there was nothing she could do! "Our owner left us without anything, If you want i can send somebody out to get you something!! Both days the same situation, I am very sorry about this employees , they have to be there to face all the issues and the "Owner" knowing that they will be sold out 2 MONTHS IN ADVANCE" (I know this because I called the hotel, talked to the GM/Owner and he told me in MARCH that I can only get 2 rooms because they will be sold out Memorial day weekend. I just don't understand why he didn't prevent all this situation, it was a very easy thing to prevent, JUST BUY...Don't go to this "hotel" if you want to have a good time with your family!!I spent Memorial weekend with my family and I am very dissapionted with this location.Sunday and Monday morning NO BREAKFAST AT ALL!!!! Literally nothing on shelfs, no milk, no yogourts, no bread, no sausages, no scrambled eggs, just juice and coffee, when I asked the kitchen attendant if she can replenish the missing items her reply was "I am sorry Sr. we are out of food"!!!!! went to front desk and asked for a Manager on duty, the answer was "there's only me here, can I help you?" when I told the Lady about the situation she told me that "she knew" what was going on and there was nothing she could do! "Our owner left us without anything, If you want i can send somebody out to get you something!! Both days the same situation, I am very sorry about this employees , they have to be there to face all the issues and the "Owner" knowing that they will be sold out 2 MONTHS IN ADVANCE" (I know this because I called the hotel, talked to the GM/Owner and he told me in MARCH that I can only get 2 rooms because they will be sold out Memorial day weekend. I just don't understand why he didn't prevent all this situation, it was a very easy thing to prevent, JUST BUY THE FOOD ENOUGH FOR ALL YOUR PAYING GUESTS SR!!!!! Also you can use one more kitchen attendant to help when you know you will be sold out, one person is not enough to clean, replenish food and take care of all the requests that she/he might getIf you decide to go to this hotel be ready to take your kids to McDonals on 322 and Dixie... THATS WHAT I DID!!!!!!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r130031483-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>130031483</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Luxurious room at an economical price</t>
+  </si>
+  <si>
+    <t>Beautiful executive suite. Wish we were staying longer!! Clean, comfy. Lovely!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r117080375-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>117080375</t>
+  </si>
+  <si>
+    <t>08/22/2011</t>
+  </si>
+  <si>
+    <t>Nice, Very clean.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>We take several short trips with the kids.  We typically stay in hotels that have small suites. (2 doubles/queens with foldout couch).  That is the configuration this room had.  The hotel itself is very new and very clean.  The same goes for our room.  The only issues we had was the foldout bead still had wadded up sheets from a previous guest.  We did not discover this until about 10:30 p.m.  We went the front desk and got a new set without any problems.  The staff was friendly and professional.  The breakfast was good and included hot items such as bacon, biscuits and sausage gravy, pancakes and some really good cinnamon rolls.  The was also the standard cold fare such as rolls, bread, cereal, etc...Although nothing fancy, they have a surprisingly nice pool and hot tub for this size hotel.We stayed here after a day at the beach, which was only 10 -15 minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We take several short trips with the kids.  We typically stay in hotels that have small suites. (2 doubles/queens with foldout couch).  That is the configuration this room had.  The hotel itself is very new and very clean.  The same goes for our room.  The only issues we had was the foldout bead still had wadded up sheets from a previous guest.  We did not discover this until about 10:30 p.m.  We went the front desk and got a new set without any problems.  The staff was friendly and professional.  The breakfast was good and included hot items such as bacon, biscuits and sausage gravy, pancakes and some really good cinnamon rolls.  The was also the standard cold fare such as rolls, bread, cereal, etc...Although nothing fancy, they have a surprisingly nice pool and hot tub for this size hotel.We stayed here after a day at the beach, which was only 10 -15 minutes away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r85904285-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>85904285</t>
+  </si>
+  <si>
+    <t>11/03/2010</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I am pleasantly surprised with this Hotel. The place is clean, conveniently located near the biggest employer in the area, Dow chemical and I am very much impressed with the internet connection. LCD TV with HD programming. All the above made my stay very comfortable.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r62807487-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>62807487</t>
+  </si>
+  <si>
+    <t>04/29/2010</t>
+  </si>
+  <si>
+    <t>Very nice, new hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel a few times, and I always enjoy my stay.  John, the afternoon front desk agent, is one of the most professional front desk clerks I have ever come across.  A true asset to the hotel.The hotel is brand new, and my girlfriend loves the bright colors.  Breakfast was good, room was quiet, and the bed comfortable.  What more could for?  Keep up the good work!!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r18649848-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>18649848</t>
+  </si>
+  <si>
+    <t>08/05/2008</t>
+  </si>
+  <si>
+    <t>Great hotel, lousy location</t>
+  </si>
+  <si>
+    <t>I love the hotel. The beds are fab, the place is super-clean. But only stay here if you HAVE to visit Clute. Clute is so polluted. It's across the highway from a chemical plant (so is most of Clute). But the hotel did the very best imaginable, considering the location.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r6643456-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>6643456</t>
+  </si>
+  <si>
+    <t>01/22/2007</t>
+  </si>
+  <si>
+    <t>Like sleeping on a highway</t>
+  </si>
+  <si>
+    <t>The company selected this hotel for us. Rooms open to the outside. My door was hard to close and nearly impossible to lock with the deadbolt thanks to the fact that the door did not fit the frame. The sounds of the highway outside prevented me from getting much sleep at all. The view out the window is the highway and the oil refinery that is literally across the street. When we checked in we asked about getting a room away from the road. Though the parking lot was empty (and remained nearly empty through the night) the desk person claimed tey were sold out and unable to switch the rooms. The room was basic, but clean. Free breakfast included, like at all Holiday Inn Expresses. This one seemed like it used to be an old motel that they refurbished a while ago, stuck a new fascade on the front and a hung a new sign, but the old, thin walled structure remains and is what makes this place not very good for trying to get a sound night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>The company selected this hotel for us. Rooms open to the outside. My door was hard to close and nearly impossible to lock with the deadbolt thanks to the fact that the door did not fit the frame. The sounds of the highway outside prevented me from getting much sleep at all. The view out the window is the highway and the oil refinery that is literally across the street. When we checked in we asked about getting a room away from the road. Though the parking lot was empty (and remained nearly empty through the night) the desk person claimed tey were sold out and unable to switch the rooms. The room was basic, but clean. Free breakfast included, like at all Holiday Inn Expresses. This one seemed like it used to be an old motel that they refurbished a while ago, stuck a new fascade on the front and a hung a new sign, but the old, thin walled structure remains and is what makes this place not very good for trying to get a sound night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r3428242-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>3428242</t>
+  </si>
+  <si>
+    <t>04/29/2005</t>
+  </si>
+  <si>
+    <t>Dirty Sheets at the Holiday Inn</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express for two nights while attending a wedding.  When we arrived, we discovered that one of the two beds had dirty sheets….disgusting!  We informed the front desk and they promptly corrected the problem.  The next morning, we discovered that the shower did not drain well.  By the end of my shower, I was standing in six inches of water….also disgusting!  There are many other hotels to choose from in this area.  We will certainly stay somewhere else next time we visit.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1253,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1285,1996 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>255</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_314.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_314.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r599869217-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>106133</t>
+  </si>
+  <si>
+    <t>599869217</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Next to 288. We went for a family gateway for fishing and it was great. We went to Quintana beach and surfside. The hotel is not to big but it was awesome. Great service at front desk!! Breakfast have everything! Definitely coming back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Next to 288. We went for a family gateway for fishing and it was great. We went to Quintana beach and surfside. The hotel is not to big but it was awesome. Great service at front desk!! Breakfast have everything! Definitely coming back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r529265150-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>529265150</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service </t>
+  </si>
+  <si>
+    <t>Booked a 2 bedroom suite with friends and we had a nice time and the beds were very comfy and pillows nice and fluffy. They were so accommodating with extra pillows and blankets n sheets and when the ac didn't work in the living room area they moved us to another identical room right away. Breakfast was very good and hot. When we get back in the area we will be staying here for sure! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Booked a 2 bedroom suite with friends and we had a nice time and the beds were very comfy and pillows nice and fluffy. They were so accommodating with extra pillows and blankets n sheets and when the ac didn't work in the living room area they moved us to another identical room right away. Breakfast was very good and hot. When we get back in the area we will be staying here for sure! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r585543166-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>106133</t>
-  </si>
-  <si>
     <t>585543166</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>We needed a hotel near the gulf coast but not on the beach. This was a nice hotel with a good breakfast: more items for breakfast than most hotels. The location is within a short driveof the gulf of Mexico at Surfside and Freeport.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -237,6 +294,51 @@
     <t>Overall the hotel was clean and comfortable but while I was there I sent out my laundry to be washed and folded, I asked at the front desk how much this service was and was told $10.00 dollars per pound which is reasonable but I was not told they weigh the cloths wet. I am very disappointed that I was not told this by the hotel I would have taken the cloths else where to be washed and folded.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r514134076-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>514134076</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Good Room Good Breakfast</t>
+  </si>
+  <si>
+    <t>Room was nice and clean Staff at desk was great Kate or Katie is very nice and welcoming (great first impression to the hotel)Breakfast was clean and well organized the lady in the kitchen was on top of everything.Overall was a good stay...experienced some issues but it was still a good stayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Patricia B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Room was nice and clean Staff at desk was great Kate or Katie is very nice and welcoming (great first impression to the hotel)Breakfast was clean and well organized the lady in the kitchen was on top of everything.Overall was a good stay...experienced some issues but it was still a good stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r513297466-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>513297466</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>The hotel looked clean, and it was perfect for a quick one night stay.  It looked like recently renovated, and the housekeeping does a great job keeping the room clean.  I did smelled slight odor in the hallway, but not sure what it was.  The bed was comfortable.  WiFi was fine for our needs.  Breakfast choices was fine and just what you would expect.  The room has all the basics, fridge, microwave, safe, iron, etc.  I am not very familiar with Holiday Inn, but surprised to learn they would charge about $36 more than the booking price at the check-in.  It is adjusted to the original booking price at the check-out if you don't buy or charge anything to the room. Not sure that is how much many people wold charge from the small shop they have, but never had encountered this practice at other hotels before.  Night time front receptionist was nice and friendly, but the morning receptionist couldn't bother to even look at us as we were leaving.  And there were no other customers at the lobby to assist.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel looked clean, and it was perfect for a quick one night stay.  It looked like recently renovated, and the housekeeping does a great job keeping the room clean.  I did smelled slight odor in the hallway, but not sure what it was.  The bed was comfortable.  WiFi was fine for our needs.  Breakfast choices was fine and just what you would expect.  The room has all the basics, fridge, microwave, safe, iron, etc.  I am not very familiar with Holiday Inn, but surprised to learn they would charge about $36 more than the booking price at the check-in.  It is adjusted to the original booking price at the check-out if you don't buy or charge anything to the room. Not sure that is how much many people wold charge from the small shop they have, but never had encountered this practice at other hotels before.  Night time front receptionist was nice and friendly, but the morning receptionist couldn't bother to even look at us as we were leaving.  And there were no other customers at the lobby to assist.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r508111811-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -282,9 +384,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Patricia B, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded May 31, 2017</t>
   </si>
   <si>
@@ -321,6 +420,51 @@
     <t>frustration when checking in.. the room I had reserved many months ahead was under renovation.  Carmen at the front desk worked very hard to find another room to accommodate my needs ...even when her shift ended she made sure the incoming shift knew what was happening.  The hotel accommodated us and were very helpful and apologetic for the inconvenience! As we continued in and out they were very friendly and helpful!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r462235996-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>462235996</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Clean and Adequate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for two nights on business and found the accommodations very adequate.  The common areas are being renovated and at least my room had been recently updated.  Occasionally, you will get a holiday inn with awful mattresses, but not this location.  I was pleased with everything in my room.  The staff was helpful and friendly.  The breakfast was on par with what you'd expect from a holiday inn.  They were completely full the two nights I stayed and everything was quiet and breakfast was well stocked.  Will stay here again if visiting the area.  </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r443964958-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>443964958</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>False advertising...misleading.</t>
+  </si>
+  <si>
+    <t>This Holiday Inn does not have a High Speed internet service as advertised .The WiFi speed is extremely slow. Don't count on it to do any work from your room or download any file within an acceptable time frame. Breakfast was very good and the attendant was very helpful. Lightning in my room was barely acceptable. Location is great and thr room are clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn does not have a High Speed internet service as advertised .The WiFi speed is extremely slow. Don't count on it to do any work from your room or download any file within an acceptable time frame. Breakfast was very good and the attendant was very helpful. Lightning in my room was barely acceptable. Location is great and thr room are clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r415348059-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -390,6 +534,48 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r293410401-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>293410401</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Bait and Switch</t>
+  </si>
+  <si>
+    <t>Pre-paid for a King Suite. Upon arrival, we were given a different room than what was reserved. When discussing it with the manager, his response was: If you don't like it you can leave. No discussion of compensation. Just leave. Tried working with the manager for several days to resolve the issue. Manager was constantly rude and would never listen.  Stay anywhere than this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Pre-paid for a King Suite. Upon arrival, we were given a different room than what was reserved. When discussing it with the manager, his response was: If you don't like it you can leave. No discussion of compensation. Just leave. Tried working with the manager for several days to resolve the issue. Manager was constantly rude and would never listen.  Stay anywhere than this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r292452827-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>292452827</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels we have stayed at in awhile. It was so clean. The staff was very friendly . The location was great for what we were doing. Breakfast was delicious. I have always thought holiday inn was good for the price. This one met my expectations and more.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r274838949-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -435,9 +621,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We stayed at Holiday Inn Express Clute while visiting family in the area.We were impeessed with clean bright interior as soon as we walked into the lobby.  The impression continued as we entered the room.  The room was remarkably clean.  Bed was very comfortable and the room remained very quiet all night. Breakfast was okay, better than many complementary breakfasts, but there was nothing very special about it either.  The turkey sausage was nasty. I continue to believe that hotel prices in the area are quite high.  This property is no exception. More</t>
   </si>
   <si>
@@ -468,6 +651,54 @@
     <t>This is a convenient hotel. The rooms are spacious and clean with modern elements. Beds are very comfortable and the price quality ratio is good. The hotel is basically good! The breakfast is full of artificial flavors. Pre cooked products that are edible but that is about the extend of it. It's complimentary and it shows. So make other breakfast arrangements if you like to enjoy you breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r240673835-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>240673835</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>spent the night here on the way to galveston for a cruise</t>
+  </si>
+  <si>
+    <t>booked a room for 5, the room had two queens beds and the couch opened up to a very comfortable nights sleep, room was large and clean. had a nice breakfast and the staff was great. would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>booked a room for 5, the room had two queens beds and the couch opened up to a very comfortable nights sleep, room was large and clean. had a nice breakfast and the staff was great. would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r234128334-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>234128334</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>Stayed 9 days in standard business hotel in the middle of a huge industrial area. Rooms a very clean, comfortable and surprisingly quiet, even with the highway next door. Hotel looks like it is new with a great decoration and color election, it is equipped with a well sized outdoor pool and jacuzzi, pool area is big for those kind of business hotel. I will consider this hotel for future trips to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Stayed 9 days in standard business hotel in the middle of a huge industrial area. Rooms a very clean, comfortable and surprisingly quiet, even with the highway next door. Hotel looks like it is new with a great decoration and color election, it is equipped with a well sized outdoor pool and jacuzzi, pool area is big for those kind of business hotel. I will consider this hotel for future trips to this area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r226770933-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -504,9 +735,6 @@
     <t>06/30/2014</t>
   </si>
   <si>
-    <t>Good stay</t>
-  </si>
-  <si>
     <t>Stayed 3 nights here for a business trip. The hotel is very good with nice big rooms. The front desk staff are very nice and helpful. The free breakfasts are ok. Hotel has a nice outdoor pool and hottub. The cookies at night are a good little snack.MoreShow less</t>
   </si>
   <si>
@@ -549,6 +777,60 @@
     <t>Very nice stay! My husband and myself recently stayed at this property Thursday and Friday last week. Front desk staff very friendly and efficient. Room itself was spotless. Breakfast was perfect with multiple choices and constantly refilled. We were very impressed with Bertilia who worked in the breakfast bar area. She was either refilling everything, cleaning, etc. always had a smile. Awesome worker! Will definately stay here againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r198700199-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>198700199</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Hotel Stay</t>
+  </si>
+  <si>
+    <t>Very Nice hotel in a nice area. I stayed at the Hotel for a week and it was a very nice Hotel. The room was clean, quiet and Spacious.  I loved the clean remote in the room!!  The only problem I had was every night my keys would stop working and I would have to visit the Front Desk. When I got to the Front Desk there wasn't anyone around. I would have to make noise to get them to come from wherever. One Night I had to look for them and I found them in the breakfast area watching tv. I Would definitely stay here again despite this small problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Very Nice hotel in a nice area. I stayed at the Hotel for a week and it was a very nice Hotel. The room was clean, quiet and Spacious.  I loved the clean remote in the room!!  The only problem I had was every night my keys would stop working and I would have to visit the Front Desk. When I got to the Front Desk there wasn't anyone around. I would have to make noise to get them to come from wherever. One Night I had to look for them and I found them in the breakfast area watching tv. I Would definitely stay here again despite this small problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r179668959-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>179668959</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>This hotel was one of the nicer Holiday Inn Express' I've been too. Very nicely decorated and comfortable. Not too noisy and it was perfect for what I needed. Their breakfast was your typical complimentary breakfast type food, but it wasn't bad at all. As for their customer service-no complaints whatsoever! Everyone was extremely friendly and they were willing to work with my weird schedule. I work night shifts and the problem is that I didn't really need the room for your typical check in/check out times that hotels usually offer. I needed to be able to sleep till at least 4 and then check out at 5. Pat was very understanding and very helpful. She made the calls necessary to help accommodate my unusual schedule without any hesitation and didn't make me feel like I was bothering her at all. She got it all done in a timely fashion as well as my need for the hotel stay came up very last minute. I was very pleased with my stay here and would stay here again without question. Thank you for a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was one of the nicer Holiday Inn Express' I've been too. Very nicely decorated and comfortable. Not too noisy and it was perfect for what I needed. Their breakfast was your typical complimentary breakfast type food, but it wasn't bad at all. As for their customer service-no complaints whatsoever! Everyone was extremely friendly and they were willing to work with my weird schedule. I work night shifts and the problem is that I didn't really need the room for your typical check in/check out times that hotels usually offer. I needed to be able to sleep till at least 4 and then check out at 5. Pat was very understanding and very helpful. She made the calls necessary to help accommodate my unusual schedule without any hesitation and didn't make me feel like I was bothering her at all. She got it all done in a timely fashion as well as my need for the hotel stay came up very last minute. I was very pleased with my stay here and would stay here again without question. Thank you for a great experience!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r177458067-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -624,6 +906,54 @@
     <t>The service was excellent.  There wasn't any wait time at check in and the front desk person was very friendly.  We were two couples and the room my sister and brother-in-law received was better than ours and they thought it was perfect for them.  It was complete with a refrigerator and a sink, a desk, another table and a foldout sofa.  The decor of the room is very up-to-date and the colors are very relaxing.  We were next to the housekeeping room and our room was half tile and half carpet without the additional sitting area.  It felt like a very wide corridor and I didn't like it.  There is a lot of lighting in the bathroom but the bedroom could use an additional light alongside the chair and the desk could use a different type of light.  There was a free breakfast but no one cared for the quality of the food - too prepackaged.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r171527672-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>171527672</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Not a single complaint!!</t>
+  </si>
+  <si>
+    <t>Me &amp; my family stayed here last week, the Customer Service was GREAT the rooms were very,very clean! We stayed at a Comfort Suites in Webster a week and half prior and it was the WORST hotel experience we had ever had.  The location in near the beach, which is nice even with the jellyfish and seaweed present.  We always go to Baytown Seafood in Freeport when we are in the area because they have great fish, shrimp, oysters, gumbo and eggrolls.  I feel hotels in general have a high staff turn over rate but I don't feel that Holiday Inn Express in Clute does.  As long as the customer service and management doesn't change then we would stay here again in the future...for sure:)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Me &amp; my family stayed here last week, the Customer Service was GREAT the rooms were very,very clean! We stayed at a Comfort Suites in Webster a week and half prior and it was the WORST hotel experience we had ever had.  The location in near the beach, which is nice even with the jellyfish and seaweed present.  We always go to Baytown Seafood in Freeport when we are in the area because they have great fish, shrimp, oysters, gumbo and eggrolls.  I feel hotels in general have a high staff turn over rate but I don't feel that Holiday Inn Express in Clute does.  As long as the customer service and management doesn't change then we would stay here again in the future...for sure:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r164617803-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>164617803</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Nice clean updated hotel</t>
+  </si>
+  <si>
+    <t>We had a business trip to Clute. This hotel was clean and the rooms where nice. We had to full sizes beds, mic , and fridge. The breakfast was very good and fresh. Will book here from now on when in Clute. Beach was not too far away.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2013</t>
+  </si>
+  <si>
+    <t>We had a business trip to Clute. This hotel was clean and the rooms where nice. We had to full sizes beds, mic , and fridge. The breakfast was very good and fresh. Will book here from now on when in Clute. Beach was not too far away.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r155291548-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -703,6 +1033,51 @@
   </si>
   <si>
     <t>So my family of 5 stayed here recently for a weekend getaway. The room was spacious, had all the amenities, frig, microwave, a sleeper sofa. Because there were only  a few families there that weekend, it was like we had the whole place to ourselves! We enjoyed the outdoor pool and hot tub all to ourselves. Breakfast was plentiful, especially since there were only a couple of other families eating. Since the hotel was near vacant, it was so quiet and peaceful at night, unlike other hotels I have stayed at with loud banging doors. The staff was friendly and the location was perfect, about 5 minutes from the beach. I read some review where they did not like the retro decor. We thought it was cool. Kind of 70's looking, but it looked neat and everything there looked brand new. I rarely write hotel reviews, unless they are terrible. But until this hotel, I had yet to find a really good one. Well, this one was a good one! I would definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r144348847-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>144348847</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Great hotel in Clute</t>
+  </si>
+  <si>
+    <t>This hotel looks brand new.  It is VERY clean and beautifully furnished.  The decor is light, colorful, and modern - very appealing.   The rooms are good size and the staff are very friendly and helpful.  It is a little tricky negotiating the roads to get to and from it since it is on a one way frontage road, but that is true of all the hotels in that area.  The breakfast was typical of Holiday Inn Express.  All in all, it was a very enjoyable place to stay and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kru-HIExpress, General Manager at Holiday Inn Express Hotel &amp; Suites Clute Southwest, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>This hotel looks brand new.  It is VERY clean and beautifully furnished.  The decor is light, colorful, and modern - very appealing.   The rooms are good size and the staff are very friendly and helpful.  It is a little tricky negotiating the roads to get to and from it since it is on a one way frontage road, but that is true of all the hotels in that area.  The breakfast was typical of Holiday Inn Express.  All in all, it was a very enjoyable place to stay and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r133678933-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>133678933</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Everything You Would Expect From HiExpress</t>
+  </si>
+  <si>
+    <t>New, clean, modern and comfortable.The soap they provide smells like snickerdoodles!! Front desk and breakfast attendants very accommodating and friendly.  One thing that was kind of odd was that we felt a bit like we were competing for food at the breakfast buffet. The housekeepers come in and eat while the guests are eating. I don't mean to seem elitist, I have been a housekeeper...but it seems maybe they could eat after the guests. One day of breakfast there was no juice at all and only 3 small cartons of milk. All the other breakfast was delish as expected at the HiExpress.  :)Also, it was pretty gross that people (other guests I would assume), deem it necessary to drop their chewing tobacco right outside the door. One hunk of tobacco sat there from the time we came in in the evening until the next morning. Perhaps the front desk person, (Showina?), could have swept that up, rather than sitting on the lobby sofa chatting on her cell phone?MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>New, clean, modern and comfortable.The soap they provide smells like snickerdoodles!! Front desk and breakfast attendants very accommodating and friendly.  One thing that was kind of odd was that we felt a bit like we were competing for food at the breakfast buffet. The housekeepers come in and eat while the guests are eating. I don't mean to seem elitist, I have been a housekeeper...but it seems maybe they could eat after the guests. One day of breakfast there was no juice at all and only 3 small cartons of milk. All the other breakfast was delish as expected at the HiExpress.  :)Also, it was pretty gross that people (other guests I would assume), deem it necessary to drop their chewing tobacco right outside the door. One hunk of tobacco sat there from the time we came in in the evening until the next morning. Perhaps the front desk person, (Showina?), could have swept that up, rather than sitting on the lobby sofa chatting on her cell phone?More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r130862958-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
@@ -772,6 +1147,45 @@
     <t>We take several short trips with the kids.  We typically stay in hotels that have small suites. (2 doubles/queens with foldout couch).  That is the configuration this room had.  The hotel itself is very new and very clean.  The same goes for our room.  The only issues we had was the foldout bead still had wadded up sheets from a previous guest.  We did not discover this until about 10:30 p.m.  We went the front desk and got a new set without any problems.  The staff was friendly and professional.  The breakfast was good and included hot items such as bacon, biscuits and sausage gravy, pancakes and some really good cinnamon rolls.  The was also the standard cold fare such as rolls, bread, cereal, etc...Although nothing fancy, they have a surprisingly nice pool and hot tub for this size hotel.We stayed here after a day at the beach, which was only 10 -15 minutes away.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r111039718-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>111039718</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>My family and I visited the beach memorial day weekend. The staff was very helpful and friendly. Any place I needed directions to they had printed on handy index cards. The rooms were bright and happy with retro decore... Loved it. The breakfast of bacon and eggs was sereved by a pleasant woman, and they even had a pancake mechaine. Everyone was so nice. It made our weekend that much more awesome. We'll defenatly be back!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r99826147-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>99826147</t>
+  </si>
+  <si>
+    <t>03/11/2011</t>
+  </si>
+  <si>
+    <t>Really torn on this one, either outstanding, or troubling traits</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days in early March 2011. This hotel is literally located on Hotel Row, (at least 10 hotels all in a row). The front desk folks told me its less than a year old and it shows. Clean, saw it getting mopped every day, and decor that really does look like 70's colors with modern IKEA beech colored furniture.  Unique features: 1) all MAC's in the business center 2) nice little market that lets you bill to the room snacks, toiletries, drinks, even frozen meals and ice cream quarts. 3) VERY close to Dow Chemical. 4) Great Front Desk staff, I had 2 packages sent to me, and they called the room immediately when each arrived.  My room (127) had a fridge and microwave, and a big flat screen, colorful paint on the walls, great lighting and chairs.  Breakfast was good, mostly (more in a bit).  So now that we have established that you will love the place on first inspection... I discovered some things that were troublesome.  1) The cabinet door for the mini fridge, was made of pressboard, like IKEA products, and the screws were striped on the upper hinge when I arrived. 2) The bed left my lower back stiff every morning, something I have never noted at any other HIE. 3) TV selection was one of the worst I have seen in an HIE (little HD programming... the HIE I just left...I stayed here for 3 days in early March 2011. This hotel is literally located on Hotel Row, (at least 10 hotels all in a row). The front desk folks told me its less than a year old and it shows. Clean, saw it getting mopped every day, and decor that really does look like 70's colors with modern IKEA beech colored furniture.  Unique features: 1) all MAC's in the business center 2) nice little market that lets you bill to the room snacks, toiletries, drinks, even frozen meals and ice cream quarts. 3) VERY close to Dow Chemical. 4) Great Front Desk staff, I had 2 packages sent to me, and they called the room immediately when each arrived.  My room (127) had a fridge and microwave, and a big flat screen, colorful paint on the walls, great lighting and chairs.  Breakfast was good, mostly (more in a bit).  So now that we have established that you will love the place on first inspection... I discovered some things that were troublesome.  1) The cabinet door for the mini fridge, was made of pressboard, like IKEA products, and the screws were striped on the upper hinge when I arrived. 2) The bed left my lower back stiff every morning, something I have never noted at any other HIE. 3) TV selection was one of the worst I have seen in an HIE (little HD programming... the HIE I just left in Saraland, AL  had 300 channels and at least 30 in HD) 4) with the current road construction, you have to leave the lot and go northbound, then turn around to head south toward Freeport and most of the work destinations travelers might have.  Also on big thing, on my second morning I opened a milk pint to find it was rancid. I warned a man reaching for one the next morning, and his, and another guest's were also rancid.  I pointed out that all were marked with expiration dates (for that very day), and the breakfast attendant immediately scooped them all up leaving only fresher pints.  All that said, Its a fantastically lovely hotel and rooms, but I have doubts about staying there again, especially if all the mattresses are the same in each room and they have the same effect.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days in early March 2011. This hotel is literally located on Hotel Row, (at least 10 hotels all in a row). The front desk folks told me its less than a year old and it shows. Clean, saw it getting mopped every day, and decor that really does look like 70's colors with modern IKEA beech colored furniture.  Unique features: 1) all MAC's in the business center 2) nice little market that lets you bill to the room snacks, toiletries, drinks, even frozen meals and ice cream quarts. 3) VERY close to Dow Chemical. 4) Great Front Desk staff, I had 2 packages sent to me, and they called the room immediately when each arrived.  My room (127) had a fridge and microwave, and a big flat screen, colorful paint on the walls, great lighting and chairs.  Breakfast was good, mostly (more in a bit).  So now that we have established that you will love the place on first inspection... I discovered some things that were troublesome.  1) The cabinet door for the mini fridge, was made of pressboard, like IKEA products, and the screws were striped on the upper hinge when I arrived. 2) The bed left my lower back stiff every morning, something I have never noted at any other HIE. 3) TV selection was one of the worst I have seen in an HIE (little HD programming... the HIE I just left...I stayed here for 3 days in early March 2011. This hotel is literally located on Hotel Row, (at least 10 hotels all in a row). The front desk folks told me its less than a year old and it shows. Clean, saw it getting mopped every day, and decor that really does look like 70's colors with modern IKEA beech colored furniture.  Unique features: 1) all MAC's in the business center 2) nice little market that lets you bill to the room snacks, toiletries, drinks, even frozen meals and ice cream quarts. 3) VERY close to Dow Chemical. 4) Great Front Desk staff, I had 2 packages sent to me, and they called the room immediately when each arrived.  My room (127) had a fridge and microwave, and a big flat screen, colorful paint on the walls, great lighting and chairs.  Breakfast was good, mostly (more in a bit).  So now that we have established that you will love the place on first inspection... I discovered some things that were troublesome.  1) The cabinet door for the mini fridge, was made of pressboard, like IKEA products, and the screws were striped on the upper hinge when I arrived. 2) The bed left my lower back stiff every morning, something I have never noted at any other HIE. 3) TV selection was one of the worst I have seen in an HIE (little HD programming... the HIE I just left in Saraland, AL  had 300 channels and at least 30 in HD) 4) with the current road construction, you have to leave the lot and go northbound, then turn around to head south toward Freeport and most of the work destinations travelers might have.  Also on big thing, on my second morning I opened a milk pint to find it was rancid. I warned a man reaching for one the next morning, and his, and another guest's were also rancid.  I pointed out that all were marked with expiration dates (for that very day), and the breakfast attendant immediately scooped them all up leaving only fresher pints.  All that said, Its a fantastically lovely hotel and rooms, but I have doubts about staying there again, especially if all the mattresses are the same in each room and they have the same effect.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r85904285-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
   </si>
   <si>
@@ -824,6 +1238,42 @@
   </si>
   <si>
     <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r18213054-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>18213054</t>
+  </si>
+  <si>
+    <t>07/24/2008</t>
+  </si>
+  <si>
+    <t>OK for Business Travel</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and quiet, was traveling with a group so we requested rooms close by since they opened to the outside and they were able to accomodate.  Breakfast was OK, same as any other HIExpress.  Was disapointed to learn at checkout that the clerk had not written down my rewards program number when I made the reservation so at checkout I learned I wouldn't recieve any credit because I couldn't remember the card # and I had left it back at the office.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r16318508-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>16318508</t>
+  </si>
+  <si>
+    <t>05/22/2008</t>
+  </si>
+  <si>
+    <t>Nices hotel in town</t>
+  </si>
+  <si>
+    <t>Nice hotel in good location.  Pat at the front desk is very helpful.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106133-r6643456-Holiday_Inn_Express_Hotel_Suites_Clute_Southwest-Clute_Texas.html</t>
@@ -1394,7 +1844,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1402,18 +1852,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1461,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1469,25 +1913,23 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1503,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1512,43 +1954,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1564,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1573,49 +2021,45 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1631,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1640,36 +2084,32 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1723,14 +2163,16 @@
         <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1784,35 +2226,25 @@
       <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1828,7 +2260,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1837,43 +2269,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
         <v>115</v>
-      </c>
-      <c r="X9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -1889,7 +2327,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1898,34 +2336,32 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>123</v>
-      </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1933,10 +2369,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1952,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1961,47 +2401,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2457,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2026,25 +2466,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2055,14 +2495,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>130</v>
-      </c>
-      <c r="X12" t="s">
-        <v>131</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -2078,7 +2514,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2087,25 +2523,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>144</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>145</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2117,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
         <v>147</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>148</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2139,7 +2575,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2148,43 +2584,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>153</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>154</v>
       </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>155</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
         <v>156</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>157</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -2200,7 +2642,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2209,53 +2651,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
         <v>160</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>161</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>162</v>
       </c>
-      <c r="L15" t="s">
-        <v>163</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
         <v>165</v>
-      </c>
-      <c r="X15" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -2271,7 +2703,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2280,32 +2712,28 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
         <v>169</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>170</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>171</v>
       </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>173</v>
-      </c>
       <c r="O16" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>4</v>
       </c>
@@ -2319,14 +2747,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>174</v>
-      </c>
-      <c r="X16" t="s">
-        <v>175</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2342,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2351,49 +2775,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2409,7 +2831,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2418,53 +2840,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>191</v>
-      </c>
-      <c r="X18" t="s">
-        <v>192</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -2480,7 +2888,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2489,53 +2897,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -2551,7 +2953,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2560,53 +2962,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -2622,7 +3014,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2631,53 +3023,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -2693,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2702,35 +3084,29 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -2742,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -2764,7 +3140,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2773,53 +3149,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>3</v>
       </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -2835,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2844,45 +3214,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -2898,7 +3266,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2907,45 +3275,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
       <c r="Y25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -2961,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2970,34 +3346,34 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3009,10 +3385,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -3028,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3037,25 +3417,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
         <v>257</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>258</v>
       </c>
-      <c r="K27" t="s">
-        <v>259</v>
-      </c>
-      <c r="L27" t="s">
-        <v>260</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>261</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3064,22 +3444,26 @@
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -3116,22 +3500,22 @@
         <v>266</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
         <v>267</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3143,10 +3527,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -3162,7 +3550,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3171,49 +3559,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>273</v>
-      </c>
-      <c r="O29" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
@@ -3229,7 +3617,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3238,43 +3626,1403 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>309</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>336</v>
+      </c>
+      <c r="X36" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>344</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>359</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>386</v>
+      </c>
+      <c r="O43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>393</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+      <c r="K45" t="s">
+        <v>397</v>
+      </c>
+      <c r="L45" t="s">
+        <v>398</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>399</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+      <c r="K46" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>405</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>407</v>
+      </c>
+      <c r="J47" t="s">
+        <v>408</v>
+      </c>
+      <c r="K47" t="s">
+        <v>409</v>
+      </c>
+      <c r="L47" t="s">
+        <v>410</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>411</v>
+      </c>
+      <c r="O47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>419</v>
+      </c>
+      <c r="J49" t="s">
+        <v>420</v>
+      </c>
+      <c r="K49" t="s">
+        <v>421</v>
+      </c>
+      <c r="L49" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59611</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
